--- a/exercise/answers/hfc_inputs.xlsx
+++ b/exercise/answers/hfc_inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\exercise\answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="1. incomplete" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>variable</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>surveystart</t>
-  </si>
-  <si>
-    <t>iqr_multiplier</t>
   </si>
   <si>
     <t>gpsLatitude</t>
@@ -230,6 +227,24 @@
   <si>
     <t>employyear==4</t>
   </si>
+  <si>
+    <t>other_variable</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>complete_percent</t>
+  </si>
+  <si>
+    <t>SubmissionDate intstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubmissionDate </t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
 </sst>
 </file>
 
@@ -280,25 +295,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <border>
         <left style="thin">
@@ -645,6 +642,33 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -662,13 +686,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -746,13 +770,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -821,13 +845,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -893,13 +917,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -981,13 +1005,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -1053,13 +1077,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1071,7 +1095,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9810750" y="314325"/>
+          <a:off x="11191875" y="314325"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -6023,13 +6047,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -6107,13 +6131,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -6182,13 +6206,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -6270,13 +6294,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -6342,13 +6366,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -6360,7 +6384,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8420100" y="600075"/>
+          <a:off x="7038975" y="600075"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -7333,13 +7357,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -7419,13 +7443,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7494,13 +7518,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -7582,13 +7606,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -7654,13 +7678,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -7672,7 +7696,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8429625" y="695325"/>
+          <a:off x="9810750" y="695325"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -8087,50 +8111,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="24" priority="2">
+  <conditionalFormatting sqref="A1:B1 D1:E1">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="23" priority="1">
+  <conditionalFormatting sqref="A3:E1048576 A1:B2 D1:E2">
+    <cfRule type="expression" dxfId="24" priority="3">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C2">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8144,7 +8184,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8160,16 +8200,16 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8199,12 +8239,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$A1="startdate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8218,7 +8258,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8228,19 +8268,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -8250,7 +8290,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6">
         <v>3</v>
@@ -8266,12 +8306,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8284,90 +8324,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8548,12 +8588,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A1="dkrf_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"", $E1&lt;&gt;"", $F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8574,7 +8614,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -8587,7 +8627,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8597,18 +8637,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8616,12 +8659,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8635,7 +8678,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8648,10 +8691,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8661,10 +8704,13 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8672,12 +8718,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8690,8 +8736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8701,74 +8747,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8792,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8809,12 +8851,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8828,7 +8870,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8838,75 +8880,78 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8917,769 +8962,686 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C602"/>
+  <dimension ref="A1:B602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="C34" s="3"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="3"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="C49" s="3"/>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="C62" s="3"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="C64" s="3"/>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="C77" s="3"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="C79" s="3"/>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="C92" s="3"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="C94" s="3"/>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="C107" s="3"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="C109" s="3"/>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="C122" s="3"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="C124" s="3"/>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="B122" s="3"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="B124" s="3"/>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="C137" s="3"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="C139" s="3"/>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="C152" s="3"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="C154" s="3"/>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="B154" s="3"/>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="C167" s="3"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="C169" s="3"/>
-    </row>
-    <row r="180" spans="1:3">
+    </row>
+    <row r="167" spans="1:2">
+      <c r="B167" s="3"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169" s="3"/>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="1:3">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="C182" s="3"/>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="C184" s="3"/>
-    </row>
-    <row r="195" spans="1:3">
+    </row>
+    <row r="182" spans="1:2">
+      <c r="B182" s="3"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="B184" s="3"/>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:3">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="C197" s="3"/>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="C199" s="3"/>
-    </row>
-    <row r="210" spans="1:3">
+    </row>
+    <row r="197" spans="1:2">
+      <c r="B197" s="3"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="B199" s="3"/>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-    </row>
-    <row r="211" spans="1:3">
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="C212" s="3"/>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="C214" s="3"/>
-    </row>
-    <row r="225" spans="1:3">
+    </row>
+    <row r="212" spans="1:2">
+      <c r="B212" s="3"/>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="B214" s="3"/>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="1:3">
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="C227" s="3"/>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="C229" s="3"/>
-    </row>
-    <row r="240" spans="1:3">
+    </row>
+    <row r="227" spans="1:2">
+      <c r="B227" s="3"/>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="B229" s="3"/>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3">
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="C242" s="3"/>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="C244" s="3"/>
-    </row>
-    <row r="255" spans="1:3">
+    </row>
+    <row r="242" spans="1:2">
+      <c r="B242" s="3"/>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="B244" s="3"/>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="256" spans="1:3">
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="C257" s="3"/>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="C259" s="3"/>
-    </row>
-    <row r="270" spans="1:3">
+    </row>
+    <row r="257" spans="1:2">
+      <c r="B257" s="3"/>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="B259" s="3"/>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-    </row>
-    <row r="271" spans="1:3">
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="C272" s="3"/>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="C274" s="3"/>
-    </row>
-    <row r="285" spans="1:3">
+    </row>
+    <row r="272" spans="1:2">
+      <c r="B272" s="3"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="B274" s="3"/>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-    </row>
-    <row r="286" spans="1:3">
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" s="3"/>
-      <c r="B286" s="3"/>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="C287" s="3"/>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="C289" s="3"/>
-    </row>
-    <row r="300" spans="1:3">
+    </row>
+    <row r="287" spans="1:2">
+      <c r="B287" s="3"/>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="B289" s="3"/>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
-    </row>
-    <row r="301" spans="1:3">
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" s="3"/>
-      <c r="B301" s="3"/>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="C302" s="3"/>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="C304" s="3"/>
-    </row>
-    <row r="315" spans="1:3">
+    </row>
+    <row r="302" spans="1:2">
+      <c r="B302" s="3"/>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="B304" s="3"/>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
-    </row>
-    <row r="316" spans="1:3">
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" s="3"/>
-      <c r="B316" s="3"/>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="C317" s="3"/>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="C319" s="3"/>
-    </row>
-    <row r="330" spans="1:3">
+    </row>
+    <row r="317" spans="1:2">
+      <c r="B317" s="3"/>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="B319" s="3"/>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
-      <c r="C330" s="3"/>
-    </row>
-    <row r="331" spans="1:3">
+    </row>
+    <row r="331" spans="1:2">
       <c r="A331" s="3"/>
-      <c r="B331" s="3"/>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="C332" s="3"/>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="C334" s="3"/>
-    </row>
-    <row r="345" spans="1:3">
+    </row>
+    <row r="332" spans="1:2">
+      <c r="B332" s="3"/>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="B334" s="3"/>
+    </row>
+    <row r="345" spans="1:2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
-      <c r="C345" s="3"/>
-    </row>
-    <row r="346" spans="1:3">
+    </row>
+    <row r="346" spans="1:2">
       <c r="A346" s="3"/>
-      <c r="B346" s="3"/>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="C347" s="3"/>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="C349" s="3"/>
-    </row>
-    <row r="360" spans="1:3">
+    </row>
+    <row r="347" spans="1:2">
+      <c r="B347" s="3"/>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="B349" s="3"/>
+    </row>
+    <row r="360" spans="1:2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
-      <c r="C360" s="3"/>
-    </row>
-    <row r="361" spans="1:3">
+    </row>
+    <row r="361" spans="1:2">
       <c r="A361" s="3"/>
-      <c r="B361" s="3"/>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="C362" s="3"/>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="C364" s="3"/>
-    </row>
-    <row r="375" spans="1:3">
+    </row>
+    <row r="362" spans="1:2">
+      <c r="B362" s="3"/>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="B364" s="3"/>
+    </row>
+    <row r="375" spans="1:2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
-      <c r="C375" s="3"/>
-    </row>
-    <row r="376" spans="1:3">
+    </row>
+    <row r="376" spans="1:2">
       <c r="A376" s="3"/>
-      <c r="B376" s="3"/>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="C377" s="3"/>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="C379" s="3"/>
-    </row>
-    <row r="390" spans="1:3">
+    </row>
+    <row r="377" spans="1:2">
+      <c r="B377" s="3"/>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="B379" s="3"/>
+    </row>
+    <row r="390" spans="1:2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
-    </row>
-    <row r="391" spans="1:3">
+    </row>
+    <row r="391" spans="1:2">
       <c r="A391" s="3"/>
-      <c r="B391" s="3"/>
-    </row>
-    <row r="392" spans="1:3">
-      <c r="C392" s="3"/>
-    </row>
-    <row r="394" spans="1:3">
-      <c r="C394" s="3"/>
-    </row>
-    <row r="405" spans="1:3">
+    </row>
+    <row r="392" spans="1:2">
+      <c r="B392" s="3"/>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="B394" s="3"/>
+    </row>
+    <row r="405" spans="1:2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
-      <c r="C405" s="3"/>
-    </row>
-    <row r="406" spans="1:3">
+    </row>
+    <row r="406" spans="1:2">
       <c r="A406" s="3"/>
-      <c r="B406" s="3"/>
-    </row>
-    <row r="407" spans="1:3">
-      <c r="C407" s="3"/>
-    </row>
-    <row r="409" spans="1:3">
-      <c r="C409" s="3"/>
-    </row>
-    <row r="420" spans="1:3">
+    </row>
+    <row r="407" spans="1:2">
+      <c r="B407" s="3"/>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="B409" s="3"/>
+    </row>
+    <row r="420" spans="1:2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
-      <c r="C420" s="3"/>
-    </row>
-    <row r="421" spans="1:3">
+    </row>
+    <row r="421" spans="1:2">
       <c r="A421" s="3"/>
-      <c r="B421" s="3"/>
-    </row>
-    <row r="422" spans="1:3">
-      <c r="C422" s="3"/>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="C424" s="3"/>
-    </row>
-    <row r="435" spans="1:3">
+    </row>
+    <row r="422" spans="1:2">
+      <c r="B422" s="3"/>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="B424" s="3"/>
+    </row>
+    <row r="435" spans="1:2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
-      <c r="C435" s="3"/>
-    </row>
-    <row r="436" spans="1:3">
+    </row>
+    <row r="436" spans="1:2">
       <c r="A436" s="3"/>
-      <c r="B436" s="3"/>
-    </row>
-    <row r="437" spans="1:3">
-      <c r="C437" s="3"/>
-    </row>
-    <row r="439" spans="1:3">
-      <c r="C439" s="3"/>
-    </row>
-    <row r="450" spans="1:3">
+    </row>
+    <row r="437" spans="1:2">
+      <c r="B437" s="3"/>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="B439" s="3"/>
+    </row>
+    <row r="450" spans="1:2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
-      <c r="C450" s="3"/>
-    </row>
-    <row r="451" spans="1:3">
+    </row>
+    <row r="451" spans="1:2">
       <c r="A451" s="3"/>
-      <c r="B451" s="3"/>
-    </row>
-    <row r="452" spans="1:3">
-      <c r="C452" s="3"/>
-    </row>
-    <row r="454" spans="1:3">
-      <c r="C454" s="3"/>
-    </row>
-    <row r="465" spans="1:3">
+    </row>
+    <row r="452" spans="1:2">
+      <c r="B452" s="3"/>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="B454" s="3"/>
+    </row>
+    <row r="465" spans="1:2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
-      <c r="C465" s="3"/>
-    </row>
-    <row r="466" spans="1:3">
+    </row>
+    <row r="466" spans="1:2">
       <c r="A466" s="3"/>
-      <c r="B466" s="3"/>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="C467" s="3"/>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="C469" s="3"/>
-    </row>
-    <row r="480" spans="1:3">
+    </row>
+    <row r="467" spans="1:2">
+      <c r="B467" s="3"/>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="B469" s="3"/>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
-    </row>
-    <row r="481" spans="1:3">
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" s="3"/>
-      <c r="B481" s="3"/>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="C482" s="3"/>
-    </row>
-    <row r="484" spans="1:3">
-      <c r="C484" s="3"/>
-    </row>
-    <row r="495" spans="1:3">
+    </row>
+    <row r="482" spans="1:2">
+      <c r="B482" s="3"/>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="B484" s="3"/>
+    </row>
+    <row r="495" spans="1:2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
-    </row>
-    <row r="496" spans="1:3">
+    </row>
+    <row r="496" spans="1:2">
       <c r="A496" s="3"/>
-      <c r="B496" s="3"/>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="C497" s="3"/>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="C499" s="3"/>
-    </row>
-    <row r="510" spans="1:3">
+    </row>
+    <row r="497" spans="1:2">
+      <c r="B497" s="3"/>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="B499" s="3"/>
+    </row>
+    <row r="510" spans="1:2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
-    </row>
-    <row r="511" spans="1:3">
+    </row>
+    <row r="511" spans="1:2">
       <c r="A511" s="3"/>
-      <c r="B511" s="3"/>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="C512" s="3"/>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="C514" s="3"/>
-    </row>
-    <row r="525" spans="1:3">
+    </row>
+    <row r="512" spans="1:2">
+      <c r="B512" s="3"/>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="B514" s="3"/>
+    </row>
+    <row r="525" spans="1:2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
-      <c r="C525" s="3"/>
-    </row>
-    <row r="526" spans="1:3">
+    </row>
+    <row r="526" spans="1:2">
       <c r="A526" s="3"/>
-      <c r="B526" s="3"/>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="C527" s="3"/>
-    </row>
-    <row r="529" spans="1:3">
-      <c r="C529" s="3"/>
-    </row>
-    <row r="540" spans="1:3">
+    </row>
+    <row r="527" spans="1:2">
+      <c r="B527" s="3"/>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="B529" s="3"/>
+    </row>
+    <row r="540" spans="1:2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
-      <c r="C540" s="3"/>
-    </row>
-    <row r="541" spans="1:3">
+    </row>
+    <row r="541" spans="1:2">
       <c r="A541" s="3"/>
-      <c r="B541" s="3"/>
-    </row>
-    <row r="542" spans="1:3">
-      <c r="C542" s="3"/>
-    </row>
-    <row r="544" spans="1:3">
-      <c r="C544" s="3"/>
-    </row>
-    <row r="555" spans="1:3">
+    </row>
+    <row r="542" spans="1:2">
+      <c r="B542" s="3"/>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="B544" s="3"/>
+    </row>
+    <row r="555" spans="1:2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
-      <c r="C555" s="3"/>
-    </row>
-    <row r="556" spans="1:3">
+    </row>
+    <row r="556" spans="1:2">
       <c r="A556" s="3"/>
-      <c r="B556" s="3"/>
-    </row>
-    <row r="557" spans="1:3">
-      <c r="C557" s="3"/>
-    </row>
-    <row r="559" spans="1:3">
-      <c r="C559" s="3"/>
-    </row>
-    <row r="570" spans="1:3">
+    </row>
+    <row r="557" spans="1:2">
+      <c r="B557" s="3"/>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="B559" s="3"/>
+    </row>
+    <row r="570" spans="1:2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
-      <c r="C570" s="3"/>
-    </row>
-    <row r="571" spans="1:3">
+    </row>
+    <row r="571" spans="1:2">
       <c r="A571" s="3"/>
-      <c r="B571" s="3"/>
-    </row>
-    <row r="572" spans="1:3">
-      <c r="C572" s="3"/>
-    </row>
-    <row r="574" spans="1:3">
-      <c r="C574" s="3"/>
-    </row>
-    <row r="585" spans="1:3">
+    </row>
+    <row r="572" spans="1:2">
+      <c r="B572" s="3"/>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="B574" s="3"/>
+    </row>
+    <row r="585" spans="1:2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
-      <c r="C585" s="3"/>
-    </row>
-    <row r="586" spans="1:3">
+    </row>
+    <row r="586" spans="1:2">
       <c r="A586" s="3"/>
-      <c r="B586" s="3"/>
-    </row>
-    <row r="587" spans="1:3">
-      <c r="C587" s="3"/>
-    </row>
-    <row r="589" spans="1:3">
-      <c r="C589" s="3"/>
-    </row>
-    <row r="600" spans="1:3">
+    </row>
+    <row r="587" spans="1:2">
+      <c r="B587" s="3"/>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="B589" s="3"/>
+    </row>
+    <row r="600" spans="1:2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
-      <c r="C600" s="3"/>
-    </row>
-    <row r="601" spans="1:3">
+    </row>
+    <row r="601" spans="1:2">
       <c r="A601" s="3"/>
-      <c r="B601" s="3"/>
-    </row>
-    <row r="602" spans="1:3">
-      <c r="C602" s="3"/>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="B602" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="12" priority="3">
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="11" priority="2">
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9693,7 +9655,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -9715,15 +9677,15 @@
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -9735,7 +9697,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -9748,7 +9710,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10212,12 +10174,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10228,87 +10190,102 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="8" priority="2">
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="A1:D1048576">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
